--- a/electricity_data_v2.xlsx
+++ b/electricity_data_v2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etech\RodanXD\ELTpart2\etl_pipeline_schema_mapping (1)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C60F5F6-5C8B-409C-940F-37521130A5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1270,8 +1276,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1283,6 +1289,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1334,13 +1346,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1378,7 +1398,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1412,6 +1432,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1446,9 +1467,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1621,14 +1643,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1668,7 +1700,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +1720,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1708,7 +1740,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1728,7 +1760,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1748,7 +1780,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1768,7 +1800,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1788,7 +1820,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1808,7 +1840,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1828,7 +1860,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1848,7 +1880,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1865,7 +1897,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1876,7 +1908,7 @@
         <v>225</v>
       </c>
       <c r="D13">
-        <v>284.28</v>
+        <v>284.27999999999997</v>
       </c>
       <c r="E13">
         <v>0.02</v>
@@ -1885,7 +1917,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1905,7 +1937,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1925,7 +1957,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1977,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1997,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1985,7 +2017,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2005,7 +2037,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2025,7 +2057,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2045,7 +2077,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2065,7 +2097,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2085,7 +2117,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2105,7 +2137,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2125,7 +2157,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2136,13 +2168,13 @@
         <v>238</v>
       </c>
       <c r="D26">
-        <v>292.4</v>
+        <v>292.39999999999998</v>
       </c>
       <c r="F26" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2162,7 +2194,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2173,7 +2205,7 @@
         <v>240</v>
       </c>
       <c r="D28">
-        <v>137.17</v>
+        <v>137.16999999999999</v>
       </c>
       <c r="E28">
         <v>0.35</v>
@@ -2182,7 +2214,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2202,7 +2234,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -2222,7 +2254,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2242,7 +2274,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -2262,7 +2294,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2279,7 +2311,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -2299,7 +2331,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2310,13 +2342,13 @@
         <v>247</v>
       </c>
       <c r="D35">
-        <v>297.46</v>
+        <v>297.45999999999998</v>
       </c>
       <c r="F35" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -2336,7 +2368,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -2356,7 +2388,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2376,7 +2408,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -2396,7 +2428,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2416,7 +2448,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2436,7 +2468,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -2456,7 +2488,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2476,7 +2508,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2496,7 +2528,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2516,7 +2548,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2536,7 +2568,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2556,7 +2588,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2576,7 +2608,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2587,7 +2619,7 @@
         <v>261</v>
       </c>
       <c r="D49">
-        <v>302.47</v>
+        <v>302.47000000000003</v>
       </c>
       <c r="E49">
         <v>0.35</v>
@@ -2596,7 +2628,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2616,7 +2648,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2636,7 +2668,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2656,7 +2688,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2676,7 +2708,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2696,7 +2728,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2716,7 +2748,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2736,7 +2768,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2756,7 +2788,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2776,7 +2808,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2796,7 +2828,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2816,7 +2848,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2833,7 +2865,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2853,7 +2885,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2873,7 +2905,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2893,7 +2925,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2913,7 +2945,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2933,7 +2965,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2944,7 +2976,7 @@
         <v>279</v>
       </c>
       <c r="D67">
-        <v>154.92</v>
+        <v>154.91999999999999</v>
       </c>
       <c r="E67">
         <v>0.02</v>
@@ -2953,7 +2985,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2964,7 +2996,7 @@
         <v>280</v>
       </c>
       <c r="D68">
-        <v>163.33</v>
+        <v>163.33000000000001</v>
       </c>
       <c r="E68">
         <v>0.02</v>
@@ -2973,7 +3005,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2993,7 +3025,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -3013,7 +3045,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -3033,7 +3065,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -3053,7 +3085,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -3073,7 +3105,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -3093,7 +3125,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -3113,7 +3145,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -3133,7 +3165,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -3153,7 +3185,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -3164,7 +3196,7 @@
         <v>290</v>
       </c>
       <c r="D78">
-        <v>305.72</v>
+        <v>305.72000000000003</v>
       </c>
       <c r="E78">
         <v>0.35</v>
@@ -3173,7 +3205,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -3190,7 +3222,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -3210,7 +3242,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -3230,7 +3262,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -3250,7 +3282,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -3270,7 +3302,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -3290,7 +3322,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -3310,7 +3342,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -3330,7 +3362,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -3350,7 +3382,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -3370,7 +3402,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -3390,7 +3422,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -3401,7 +3433,7 @@
         <v>302</v>
       </c>
       <c r="D90">
-        <v>140.14</v>
+        <v>140.13999999999999</v>
       </c>
       <c r="E90">
         <v>0.35</v>
@@ -3410,7 +3442,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -3430,7 +3462,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -3441,7 +3473,7 @@
         <v>304</v>
       </c>
       <c r="D92">
-        <v>293.47</v>
+        <v>293.47000000000003</v>
       </c>
       <c r="E92">
         <v>0.05</v>
@@ -3450,7 +3482,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -3470,7 +3502,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -3490,7 +3522,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -3510,7 +3542,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -3530,7 +3562,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -3550,7 +3582,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -3570,7 +3602,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -3590,7 +3622,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -3610,7 +3642,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -3630,7 +3662,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -3650,7 +3682,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -3670,7 +3702,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -3690,7 +3722,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -3710,7 +3742,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -3730,7 +3762,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -3747,7 +3779,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -3767,7 +3799,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -3787,7 +3819,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -3807,7 +3839,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -3827,7 +3859,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -3847,7 +3879,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -3867,7 +3899,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -3884,7 +3916,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -3904,7 +3936,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -3924,7 +3956,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3944,7 +3976,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3964,7 +3996,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -3984,7 +4016,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -3995,7 +4027,7 @@
         <v>332</v>
       </c>
       <c r="D120">
-        <v>80.84999999999999</v>
+        <v>80.849999999999994</v>
       </c>
       <c r="E120">
         <v>0.02</v>
@@ -4004,7 +4036,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -4024,7 +4056,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -4044,7 +4076,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -4064,7 +4096,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -4081,7 +4113,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>129</v>
       </c>
@@ -4098,7 +4130,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -4118,7 +4150,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -4138,7 +4170,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>132</v>
       </c>
@@ -4158,7 +4190,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>133</v>
       </c>
@@ -4175,7 +4207,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>134</v>
       </c>
@@ -4195,7 +4227,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>135</v>
       </c>
@@ -4215,7 +4247,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>136</v>
       </c>
@@ -4235,7 +4267,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>137</v>
       </c>
@@ -4255,7 +4287,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -4266,7 +4298,7 @@
         <v>346</v>
       </c>
       <c r="D134">
-        <v>258.84</v>
+        <v>258.83999999999997</v>
       </c>
       <c r="E134">
         <v>0.35</v>
@@ -4275,7 +4307,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>139</v>
       </c>
@@ -4295,7 +4327,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>140</v>
       </c>
@@ -4315,7 +4347,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>141</v>
       </c>
@@ -4335,7 +4367,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>142</v>
       </c>
@@ -4352,7 +4384,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -4363,7 +4395,7 @@
         <v>351</v>
       </c>
       <c r="D139">
-        <v>161.3</v>
+        <v>161.30000000000001</v>
       </c>
       <c r="E139">
         <v>0.35</v>
@@ -4372,7 +4404,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -4392,7 +4424,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>145</v>
       </c>
@@ -4412,7 +4444,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>146</v>
       </c>
@@ -4423,13 +4455,13 @@
         <v>354</v>
       </c>
       <c r="D142">
-        <v>302.59</v>
+        <v>302.58999999999997</v>
       </c>
       <c r="F142" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -4449,7 +4481,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>148</v>
       </c>
@@ -4469,7 +4501,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -4489,7 +4521,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -4509,7 +4541,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -4529,7 +4561,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -4549,7 +4581,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -4569,7 +4601,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -4589,7 +4621,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -4606,7 +4638,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -4626,7 +4658,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>157</v>
       </c>
@@ -4646,7 +4678,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -4666,7 +4698,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -4686,7 +4718,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -4706,7 +4738,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -4726,7 +4758,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>162</v>
       </c>
@@ -4746,7 +4778,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>163</v>
       </c>
@@ -4766,7 +4798,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -4786,7 +4818,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>165</v>
       </c>
@@ -4806,7 +4838,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>166</v>
       </c>
@@ -4826,7 +4858,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>167</v>
       </c>
@@ -4846,7 +4878,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>168</v>
       </c>
@@ -4866,7 +4898,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>169</v>
       </c>
@@ -4883,7 +4915,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -4894,7 +4926,7 @@
         <v>378</v>
       </c>
       <c r="D166">
-        <v>285.04</v>
+        <v>285.04000000000002</v>
       </c>
       <c r="E166">
         <v>0.35</v>
@@ -4903,7 +4935,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -4923,7 +4955,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>172</v>
       </c>
@@ -4943,7 +4975,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>173</v>
       </c>
@@ -4963,7 +4995,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>174</v>
       </c>
@@ -4983,7 +5015,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -5003,7 +5035,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>176</v>
       </c>
@@ -5023,7 +5055,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>177</v>
       </c>
@@ -5043,7 +5075,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>178</v>
       </c>
@@ -5063,7 +5095,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>179</v>
       </c>
@@ -5083,7 +5115,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>180</v>
       </c>
@@ -5100,7 +5132,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>181</v>
       </c>
@@ -5120,7 +5152,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>182</v>
       </c>
@@ -5140,7 +5172,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>183</v>
       </c>
@@ -5160,7 +5192,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>184</v>
       </c>
@@ -5180,7 +5212,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>185</v>
       </c>
@@ -5200,7 +5232,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>186</v>
       </c>
@@ -5220,7 +5252,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>187</v>
       </c>
@@ -5240,7 +5272,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>188</v>
       </c>
@@ -5260,7 +5292,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>189</v>
       </c>
@@ -5280,7 +5312,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>190</v>
       </c>
@@ -5300,7 +5332,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>191</v>
       </c>
@@ -5311,7 +5343,7 @@
         <v>399</v>
       </c>
       <c r="D187">
-        <v>153.05</v>
+        <v>153.05000000000001</v>
       </c>
       <c r="E187">
         <v>0.02</v>
@@ -5320,7 +5352,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>192</v>
       </c>
@@ -5340,7 +5372,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>193</v>
       </c>
@@ -5360,7 +5392,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>194</v>
       </c>
@@ -5380,7 +5412,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>195</v>
       </c>
@@ -5397,7 +5429,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>196</v>
       </c>
@@ -5417,7 +5449,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>197</v>
       </c>
@@ -5437,7 +5469,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>198</v>
       </c>
@@ -5457,7 +5489,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>199</v>
       </c>
@@ -5477,7 +5509,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>200</v>
       </c>
@@ -5497,7 +5529,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>201</v>
       </c>
@@ -5517,7 +5549,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>202</v>
       </c>
@@ -5537,7 +5569,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>203</v>
       </c>
@@ -5557,7 +5589,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>204</v>
       </c>
@@ -5577,7 +5609,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>205</v>
       </c>
@@ -5598,6 +5630,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>